--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R209_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R209_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -738,10 +750,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -785,28 +797,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -831,28 +843,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="2">
+      <c r="I25" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1491,10 +1503,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1538,28 +1550,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1584,28 +1596,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2128,10 +2140,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="J69" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2175,28 +2187,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2221,28 +2233,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2736,10 +2748,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="2" t="s">
+      <c r="J90" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K90" s="2" t="s">
+      <c r="K90" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2783,28 +2795,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2829,28 +2841,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="2">
+      <c r="I94" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3402,10 +3414,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
+      <c r="J113" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K113" s="2" t="s">
+      <c r="K113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3449,28 +3461,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3495,28 +3507,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3778,10 +3790,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="2" t="s">
+      <c r="J126" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K126" s="2" t="s">
+      <c r="K126" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3825,28 +3837,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="2">
+      <c r="A128" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3871,28 +3883,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="2">
+      <c r="I130" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4067,10 +4079,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
+      <c r="J136" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K136" s="2" t="s">
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
